--- a/xlsx/埃文·阿莫斯_intext.xlsx
+++ b/xlsx/埃文·阿莫斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>电子游戏机</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_埃文·阿莫斯</t>
+    <t>政策_政策_维基百科_埃文·阿莫斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A2%86%E5%9F%9F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Kickstarter</t>
